--- a/config/language.xlsx
+++ b/config/language.xlsx
@@ -203,7 +203,7 @@
     <t>等级</t>
   </si>
   <si>
-    <t>Lv.</t>
+    <t>Lv</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,13 +253,6 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -771,13 +764,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,121 +782,118 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -935,7 +928,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -944,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
